--- a/DragPrediction/NL2VP DragX/0.75L/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75L/n/5/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.8965517239999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.110937275861157E-2</v>
+        <v>0.32310964963978622</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>2.686759861016851</v>
+        <v>9.5283065954083401</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E41" si="0">A3*$E$1</f>
-        <v>8.0953102035483476E-2</v>
+        <v>0.28709152136563931</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>8.1749442954904966E-2</v>
+        <v>0.28991565929653934</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.365631585433471E-2</v>
+        <v>0.19028638757714561</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.1577417029252081E-2</v>
+        <v>0.32476951860522446</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.6902781341438016E-2</v>
+        <v>0.20179963033521806</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>9.0825810050504135E-2</v>
+        <v>0.32210402481224792</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>5.6380798245855374E-2</v>
+        <v>0.19994847309392691</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.1985265853280995E-2</v>
+        <v>0.14889625654463384</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4.6070576445904961E-2</v>
+        <v>0.16338437378532322</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.4389243485632231E-2</v>
+        <v>0.15742170619940027</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.369292298569008E-2</v>
+        <v>0.15495227999262132</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.7569224715462807E-2</v>
+        <v>0.1686991696471391</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.7388377734561983E-2</v>
+        <v>0.16805781516441104</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.2426593907024794E-2</v>
+        <v>0.15046137930317999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.3123061423752072E-2</v>
+        <v>0.15293132688926928</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>3.8963964740194215E-2</v>
+        <v>0.1381815351658337</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.1527986382070249E-2</v>
+        <v>7.6346702065329952E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.154098108049587E-2</v>
+        <v>0.1118567172360528</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>9.882019078078513E-3</v>
+        <v>3.5045524136262197E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-9.9349385866438031E-2</v>
+        <v>-0.35233197515563608</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-0.14001758551498761</v>
+        <v>-0.49655739721773368</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-0.14665383335189258</v>
+        <v>-0.52009214066488885</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.15011506585926448</v>
+        <v>-0.53236703169878707</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-6.9478164258185954E-2</v>
+        <v>-0.24639688136757712</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-4.1758320942644625E-3</v>
+        <v>-1.4809142068260318E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>3.9627819033421489E-2</v>
+        <v>0.14053582344158366</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>3.9039147490586783E-2</v>
+        <v>0.13844816275202793</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-6.1848524004198345E-2</v>
+        <v>-0.21933917792058974</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-7.3207865750392564E-2</v>
+        <v>-0.2596238689531542</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-0.13599825278848762</v>
+        <v>-0.48230326342530905</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-8.2262711222169424E-2</v>
+        <v>-0.29173591033093538</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>1.4238412287272727E-2</v>
+        <v>5.0495006894147196E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>5.9863674891037194E-2</v>
+        <v>0.21230012274851115</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.2301723374497934</v>
+        <v>0.81628158616802593</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>6.0199502066256197E-2</v>
+        <v>0.21349109792086823</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>4.6974860356004136E-2</v>
+        <v>0.16659131999206708</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.49352752310114878</v>
+        <v>1.750242595778724</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.77059979951972735</v>
+        <v>2.7328498012491749</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.83390874742935128</v>
+        <v>2.957368216410897</v>
       </c>
     </row>
   </sheetData>
@@ -1102,5 +1102,6 @@
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>